--- a/pred_ohlcv/54_21/2019-10-18 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 XRP ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>1422700.52414694</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1422700.52414694</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1249996.08234694</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -912,7 +912,7 @@
         <v>5246364.543069281</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5246364.543069281</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>5931362.4476407</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>5754996.19655297</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>5754996.19655297</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>5587573.840963581</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>5618049.817752111</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>5618049.817752111</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>5618049.817752111</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>5830030.838566391</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>8298442.594607301</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>7382207.739118941</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>7494683.116404121</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>7474923.359004121</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>7918837.359938601</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>8371720.840457112</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>8380676.063484402</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>13703431.87061551</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>13238070.95371551</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>13494236.99621551</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>13471974.20073842</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>13471974.20073842</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>13673596.98443842</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>13625640.94763842</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>13625640.94763842</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>13625640.94763842</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>13283184.48090705</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>13311841.99080705</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>13259403.57380705</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>13259403.57380705</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>13120741.49720705</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>13175915.64620705</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>13175915.64620705</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>13175915.64620705</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>13589573.15360705</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>13589573.15360705</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>13589573.15360705</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>13707967.89361598</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>13707967.89361598</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>13707967.89361598</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>13672130.97701598</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>13672130.97701598</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>13672130.97701598</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>13662123.97701598</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>13662123.97701598</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>13867629.88211598</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>13867629.88211598</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>13867629.88211598</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>13735129.57411598</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>13735602.8794381</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>13735602.8794381</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>13601370.7914381</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>13391735.6968381</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>13632267.5658381</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>13485054.5822381</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>13485052.5822381</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>13485177.7720381</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>12737158.84431135</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>13245492.82153516</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>13245492.82153516</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>13220799.59183516</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>13220800.59183516</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>13757087.7768378</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>13757087.7768378</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>13757087.7768378</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>13757087.7768378</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>13757087.7768378</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>13770348.7350378</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>13662320.0848378</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>13662320.0848378</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>13662320.0848378</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>13609596.1003378</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>13689729.8226378</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>13689729.8226378</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>13689729.8226378</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>13689729.8226378</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>13689106.8662378</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>13698785.9240378</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>13698785.9240378</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>13698787.7839378</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>13698784.7839378</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>13698784.7839378</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>13698784.7839378</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>13698801.38409914</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>13663808.19369914</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>13663808.19369914</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>13629584.52509914</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>13629584.52509914</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>13629584.52509914</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>13629584.52509914</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>13629584.52509914</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>13629584.52509914</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>13030820.16849914</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>12514495.30692485</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>12516212.53882485</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>12471624.37499677</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>12471624.37499677</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>12795453.30107862</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>12795603.30107862</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>12661901.99687862</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>12661901.99687862</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>12661901.99687862</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>12674767.63037862</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>12610362.63037862</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>12641632.41707862</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>13055727.95066124</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>13055727.95066124</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>13055727.95066124</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>12707267.85285231</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>12706126.79685231</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>12706447.79685231</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>12524082.02365231</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>12524082.02365231</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>12524082.02365231</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>12524082.02365231</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>12592437.26844922</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>12905561.029697</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>12905561.029697</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>12905561.029697</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>13046577.883797</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>12961973.301197</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>12961973.301197</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>12961973.301197</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>12981495.99486106</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>12848681.35326106</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>12957320.16470117</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>12891461.40860117</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>12891573.308263</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>12891573.308263</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>12891573.308263</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>12674241.727363</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>12547799.421863</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>12520744.610763</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>12597881.237263</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>12634312.786763</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>12634312.786763</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>12554572.748463</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>12599400.966663</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>12575801.818563</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>12575801.818563</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>12602566.79580992</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>12751212.87070992</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>12751212.87070992</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>12746124.71730992</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>12747798.29310992</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>12747798.29310992</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>12747570.35360992</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>12749269.62020992</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>12741673.18170992</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>12741673.18170992</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>12741673.18170992</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>12348509.61739708</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>12453378.04947212</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>12423694.2063604</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>12562062.61763771</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>12562062.61763771</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>12562062.61763771</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>12548065.14653771</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>1052184.592714101</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>366111.2025141011</v>
       </c>
       <c r="H1228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>366111.2025141011</v>
       </c>
       <c r="H1229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>366111.2025141011</v>
       </c>
       <c r="H1230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-719263.3623858991</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-47980.83598589909</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-47980.83598589909</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-84551.31628589908</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>320394.0737141009</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-18 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 XRP ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>1422700.52414694</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1422700.52414694</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1419419.43444694</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1499688.60022875</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1438031.89762875</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -912,7 +912,7 @@
         <v>5246364.543069281</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5246364.543069281</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>5931362.4476407</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>5754996.19655297</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>5754996.19655297</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>5587573.840963581</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>5618049.817752111</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>5618049.817752111</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>5618049.817752111</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>5830030.838566391</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>8298442.594607301</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>7382207.739118941</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>7494683.116404121</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>7474923.359004121</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>7918837.359938601</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>8371720.840457112</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>8380676.063484402</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>11829525.98635892</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>11307427.93225892</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>11915763.75055892</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>13703431.87061551</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>13703431.87061551</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>13238070.95371551</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>13494236.99621551</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>13471974.20073842</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>13471974.20073842</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>13673596.98443842</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>13625640.94763842</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>13625640.94763842</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>13625640.94763842</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>13283184.48090705</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>13311841.99080705</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>13259403.57380705</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>13259403.57380705</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>13120741.49720705</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>13175915.64620705</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>13175915.64620705</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>13175915.64620705</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>13589573.15360705</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>13589573.15360705</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>13589573.15360705</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>13707967.89361598</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>13707967.89361598</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>13707967.89361598</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>13672130.97701598</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>13672130.97701598</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>13672130.97701598</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>13662123.97701598</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>13662123.97701598</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>13867629.88211598</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>13867629.88211598</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>13867629.88211598</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>13735129.57411598</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>13735602.8794381</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>13735602.8794381</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>13601370.7914381</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>13391735.6968381</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>13632267.5658381</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>13485054.5822381</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>13485052.5822381</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>13485177.7720381</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>12737158.84431135</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>13220799.59183516</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>13055727.95066124</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>13055727.95066124</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>12707267.85285231</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>12706126.79685231</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>12706447.79685231</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>12524082.02365231</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>12524082.02365231</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>12592437.26844922</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>12905561.029697</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>12905561.029697</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>12905561.029697</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>13046577.883797</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>12961973.301197</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>12961973.301197</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>12961973.301197</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>12981495.99486106</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>12848681.35326106</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>12957320.16470117</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>12891461.40860117</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>12891573.308263</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>12891573.308263</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>12891573.308263</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>12674241.727363</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>12547799.421863</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>12520744.610763</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>12597881.237263</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>12634312.786763</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>12634312.786763</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>12554572.748463</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>12599400.966663</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>12575801.818563</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>12575801.818563</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>12606164.24620992</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>12602566.79580992</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>12751212.87070992</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>12751212.87070992</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>12746124.71730992</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>12747798.29310992</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>12747798.29310992</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>12747570.35360992</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>12749269.62020992</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>12741673.18170992</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>12741673.18170992</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>12741673.18170992</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>12755405.97300992</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>12348509.61739708</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>12348509.61739708</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>12348509.61739708</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>12348509.61739708</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>12311215.25189708</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>12414724.26922966</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>12467613.28262966</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>12467613.28262966</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>12511074.18882966</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>12411481.14442966</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>12508585.59403412</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>12455358.68182072</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>12457626.67834753</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>12457626.67834753</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>12454543.86774307</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>12454543.86774307</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>12456845.12408105</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>12456845.12408105</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>12453377.04947212</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>12453378.04947212</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>12453378.04947212</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>12453378.04947212</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>12423694.2063604</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>12423694.2063604</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>12423694.2063604</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>12400375.09279906</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>12399334.38999906</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>12399038.5531195</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>12580561.83513772</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>12431100.78933772</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>12431100.78933772</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>12431100.78933772</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>12426597.95643771</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>12562062.61763771</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>12562062.61763771</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>12562062.61763771</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>12562062.61763771</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>12562062.61763771</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>1441141.094074961</v>
       </c>
       <c r="H1226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>1052184.592714101</v>
       </c>
       <c r="H1227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>366111.2025141011</v>
       </c>
       <c r="H1228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>366111.2025141011</v>
       </c>
       <c r="H1229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>366111.2025141011</v>
       </c>
       <c r="H1230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-719263.3623858991</v>
       </c>
       <c r="H1231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-47980.83598589909</v>
       </c>
       <c r="H1232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-47980.83598589909</v>
       </c>
       <c r="H1233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-84551.31628589908</v>
       </c>
       <c r="H1234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>320394.0737141009</v>
       </c>
       <c r="H1235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
